--- a/240422_bedda_MLF_Terminal_Produkte.xlsx
+++ b/240422_bedda_MLF_Terminal_Produkte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Marketing_Storage/bedda/POS/MLF_Terminal/Export_Elemente/Produkte/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajdin\Downloads\sebastian\bedda-display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96CA4B6C-CE84-CA4B-9B85-79C631D34E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7047D9A-C27F-4D90-81CC-7A2D5A23AF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="500" windowWidth="32560" windowHeight="24920" xr2:uid="{0CE1E5D3-165B-C149-8554-FA29E3066F94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0CE1E5D3-165B-C149-8554-FA29E3066F94}"/>
   </bookViews>
   <sheets>
     <sheet name="bedda Produkte" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -907,7 +905,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1241,11 +1239,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645A92D8-AA2F-CC4A-B0E2-D23A231CF0BC}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="11" width="21.33203125" customWidth="1"/>
   </cols>
@@ -1285,7 +1283,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>156</v>
       </c>
@@ -1320,7 +1318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>158</v>
       </c>
@@ -1355,7 +1353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>160</v>
       </c>
@@ -1390,7 +1388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>162</v>
       </c>
@@ -1425,7 +1423,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>165</v>
       </c>
@@ -1460,7 +1458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>167</v>
       </c>
@@ -1495,7 +1493,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>170</v>
       </c>
@@ -1530,7 +1528,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>172</v>
       </c>
@@ -1565,7 +1563,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>174</v>
       </c>
@@ -1600,7 +1598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>176</v>
       </c>
@@ -1635,7 +1633,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>179</v>
       </c>
@@ -1670,7 +1668,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="149" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="149.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>181</v>
       </c>
@@ -1705,7 +1703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>183</v>
       </c>
@@ -1740,7 +1738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>185</v>
       </c>
@@ -1775,7 +1773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>188</v>
       </c>
@@ -1810,7 +1808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>191</v>
       </c>
@@ -1845,7 +1843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>193</v>
       </c>
@@ -1880,7 +1878,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>196</v>
       </c>
@@ -1915,7 +1913,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>199</v>
       </c>
@@ -1950,7 +1948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>201</v>
       </c>
@@ -1985,7 +1983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>203</v>
       </c>
@@ -2020,7 +2018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>205</v>
       </c>
@@ -2055,7 +2053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>207</v>
       </c>
@@ -2090,7 +2088,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="259" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="258.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>209</v>
       </c>
@@ -2125,7 +2123,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="177.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>212</v>
       </c>
@@ -2160,7 +2158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="188" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="188.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>215</v>
       </c>
@@ -2195,7 +2193,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>218</v>
       </c>
@@ -2230,7 +2228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>221</v>
       </c>
@@ -2265,7 +2263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>223</v>
       </c>
@@ -2300,7 +2298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>225</v>
       </c>
@@ -2335,7 +2333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>118</v>
       </c>
@@ -2370,7 +2368,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>231</v>
       </c>
@@ -2405,7 +2403,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>232</v>
       </c>
@@ -2440,7 +2438,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>235</v>
       </c>
@@ -2475,7 +2473,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>238</v>
       </c>
@@ -2510,7 +2508,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>241</v>
       </c>
@@ -2545,7 +2543,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>244</v>
       </c>
